--- a/pick_counts.xlsx
+++ b/pick_counts.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,23 +470,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C2" t="n">
-        <v>5.876288659793814</v>
+        <v>13.98963730569948</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AGNE8120.CARUTH</t>
+          <t>ARJUNBHAI.PATEL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>2.474226804123711</v>
+        <v>8.393782383419689</v>
       </c>
     </row>
     <row r="4">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="C4" t="n">
-        <v>78.8659793814433</v>
+        <v>50.05181347150259</v>
       </c>
     </row>
     <row r="5">
@@ -509,205 +509,101 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>209</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>64.63917525773196</v>
+        <v>8.393782383419689</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C6" t="n">
-        <v>8.659793814432989</v>
+        <v>14.92227979274611</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KHINEHAYMAR.THAUNG</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C7" t="n">
-        <v>1.54639175257732</v>
+        <v>16.16580310880829</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>PATR5027.AMEH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3.711340206185567</v>
+        <v>0.6217616580310881</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MAKEDA.OLLIVIERRE</t>
+          <t>SURESH.DHAWAN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6185567010309279</v>
+        <v>30.77720207253886</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MELA6559.ROCHETTE</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="C10" t="n">
-        <v>23.81443298969072</v>
+        <v>32.95336787564766</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>TUSHAR.BHATIA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>2.783505154639175</v>
+        <v>7.150259067357513</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PATI2298.ATSIANGBE</t>
+          <t>ZAHIDGUL.MINHAS</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>20.41237113402062</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>PATR5027.AMEH</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>71</v>
-      </c>
-      <c r="C13" t="n">
-        <v>21.95876288659794</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>RAMI9087.SAIHI</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>173</v>
-      </c>
-      <c r="C14" t="n">
-        <v>53.50515463917526</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>STAN9294.BAUER</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>117</v>
-      </c>
-      <c r="C15" t="n">
-        <v>36.18556701030928</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>TAMISHA.DAVY</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>123</v>
-      </c>
-      <c r="C16" t="n">
-        <v>38.04123711340206</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>TANI2739.HOSSAINISLA</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>242</v>
-      </c>
-      <c r="C17" t="n">
-        <v>74.84536082474227</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>THIE6554.DIALLO</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>165</v>
-      </c>
-      <c r="C18" t="n">
-        <v>51.03092783505154</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>XYZE1559.MACASIL</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>58</v>
-      </c>
-      <c r="C19" t="n">
-        <v>17.93814432989691</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ZAKI0190.PHILLIPHORS</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.54639175257732</v>
+        <v>1.55440414507772</v>
       </c>
     </row>
   </sheetData>
@@ -749,66 +645,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>ARJUNBHAI.PATEL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.329896907216495</v>
+        <v>0.310880829015544</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>11.44329896907217</v>
+        <v>2.797927461139896</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LOWRHY-OTIENO.JAOKO</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3092783505154639</v>
+        <v>16.78756476683938</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>MARI882N.ABDELKADER</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>2.164948453608247</v>
+        <v>2.487046632124352</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TANI2739.HOSSAINISLA</t>
+          <t>PATR5027.AMEH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>2.783505154639175</v>
+        <v>1.243523316062176</v>
       </c>
     </row>
     <row r="7">
@@ -818,23 +714,23 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9278350515463918</v>
+        <v>9.326424870466321</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ZAKI0190.PHILLIPHORS</t>
+          <t>ZAHIDGUL.MINHAS</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>1.237113402061856</v>
+        <v>1.243523316062176</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -876,79 +772,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ANJALI.BAKSHI</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>5.876288659793814</v>
+        <v>10.88082901554404</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>4.020618556701031</v>
+        <v>4.352331606217616</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LOWRHY-OTIENO.JAOKO</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C4" t="n">
-        <v>4.020618556701031</v>
+        <v>15.5440414507772</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TAMISHA.DAVY</t>
+          <t>SEPIDEH.AZARIHASHJIN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="C5" t="n">
-        <v>7.731958762886598</v>
+        <v>47.56476683937824</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>STAN9294.BAUER</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>20.41237113402062</v>
+        <v>26.73575129533679</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ZAHIDGUL.MINHAS</t>
+          <t>TUSHAR.BHATIA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>6.804123711340206</v>
+        <v>3.730569948186528</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>WESL5337.CADETTE</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.66321243523316</v>
       </c>
     </row>
   </sheetData>
@@ -962,7 +871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -990,235 +899,300 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AHME0710.JUBRAN</t>
+          <t>AGNE8120.CARUTH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="C2" t="n">
-        <v>3.092783505154639</v>
+        <v>52.84974093264248</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ANJALI.BAKSHI</t>
+          <t>ARJUNBHAI.PATEL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C3" t="n">
-        <v>21.34020618556701</v>
+        <v>25.49222797927461</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BUDD0680.TENNAKOON</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>18.24742268041237</v>
+        <v>7.150259067357513</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>BUDD0680.TENNAKOON</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="C5" t="n">
-        <v>18.8659793814433</v>
+        <v>34.81865284974093</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IREN797N.CABRERA</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C6" t="n">
-        <v>25.67010309278351</v>
+        <v>27.04663212435233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="C7" t="n">
-        <v>12.37113402061856</v>
+        <v>28.29015544041451</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LOWRHY-OTIENO.JAOKO</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C8" t="n">
-        <v>24.74226804123711</v>
+        <v>22.69430051813471</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MARI882N.ABDELKADER</t>
+          <t>INUK4091.QAVAVAU</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9278350515463918</v>
+        <v>29.84455958549223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>JEEW9554.SITUMUDALIG</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="C10" t="n">
-        <v>37.11340206185567</v>
+        <v>26.1139896373057</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>32.47422680412371</v>
+        <v>15.5440414507772</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RAMI9087.SAIHI</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C12" t="n">
-        <v>8.350515463917526</v>
+        <v>17.72020725388601</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RARG046N.YEBOAH</t>
+          <t>MARI882N.ABDELKADER</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>38.04123711340206</v>
+        <v>11.50259067357513</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>REJWAN.ISLAM</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C14" t="n">
-        <v>22.88659793814433</v>
+        <v>32.02072538860104</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C15" t="n">
-        <v>7.731958762886598</v>
+        <v>23.62694300518135</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SURESH.DHAWAN</t>
+          <t>OMAR6689.KHAN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="C16" t="n">
-        <v>38.65979381443299</v>
+        <v>18.96373056994819</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>PRINCE.FORSON</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="C17" t="n">
-        <v>20.72164948453608</v>
+        <v>31.39896373056995</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>WILDINE.JEUNE</t>
+          <t>STAN9294.BAUER</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="C18" t="n">
-        <v>54.43298969072165</v>
+        <v>10.25906735751295</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ZAHIDGUL.MINHAS</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C19" t="n">
-        <v>19.48453608247423</v>
+        <v>26.42487046632124</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TUSHAR.BHATIA</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>99</v>
+      </c>
+      <c r="C20" t="n">
+        <v>30.77720207253886</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>WESL5337.CADETTE</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>83</v>
+      </c>
+      <c r="C21" t="n">
+        <v>25.80310880829015</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>WILDINE.JEUNE</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>172</v>
+      </c>
+      <c r="C22" t="n">
+        <v>53.47150259067357</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>YATI0689.YATIN</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>112</v>
+      </c>
+      <c r="C23" t="n">
+        <v>34.81865284974093</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ZAKI0190.PHILLIPHORS</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>118</v>
+      </c>
+      <c r="C24" t="n">
+        <v>36.68393782383419</v>
       </c>
     </row>
   </sheetData>
@@ -1232,7 +1206,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1260,261 +1234,170 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGNE8120.CARUTH</t>
+          <t>ADOL798N.SEEMANNVAZQ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="C2" t="n">
-        <v>20.72164948453608</v>
+        <v>53.78238341968912</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ALMER.VILLAMIN</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3092783505154639</v>
+        <v>24.55958549222798</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>8.969072164948454</v>
+        <v>10.25906735751295</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESSE0616.UDEH</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>379</v>
+        <v>154</v>
       </c>
       <c r="C5" t="n">
-        <v>117.2164948453608</v>
+        <v>47.87564766839378</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IREN797N.CABRERA</t>
+          <t>ESSE0616.UDEH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66</v>
+        <v>321</v>
       </c>
       <c r="C6" t="n">
-        <v>20.41237113402062</v>
+        <v>99.79274611398964</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KHINEHAYMAR.THAUNG</t>
+          <t>JEEW9554.SITUMUDALIG</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3092783505154639</v>
+        <v>3.10880829015544</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="C8" t="n">
-        <v>9.587628865979381</v>
+        <v>53.16062176165803</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MAKEDA.OLLIVIERRE</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="C9" t="n">
-        <v>16.39175257731959</v>
+        <v>30.15544041450777</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MELA6559.ROCHETTE</t>
+          <t>STAN9294.BAUER</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="C10" t="n">
-        <v>3.402061855670103</v>
+        <v>34.81865284974093</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>SURESH.DHAWAN</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="C11" t="n">
-        <v>22.57731958762886</v>
+        <v>61.86528497409326</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>215</v>
+        <v>86</v>
       </c>
       <c r="C12" t="n">
-        <v>66.49484536082474</v>
+        <v>26.73575129533679</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PATI2298.ATSIANGBE</t>
+          <t>WESL5337.CADETTE</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="C13" t="n">
-        <v>9.278350515463917</v>
+        <v>33.26424870466321</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>YATI0689.YATIN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="C14" t="n">
-        <v>33.09278350515464</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>RAMI9087.SAIHI</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>110</v>
-      </c>
-      <c r="C15" t="n">
-        <v>34.02061855670103</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>RARG046N.YEBOAH</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>90</v>
-      </c>
-      <c r="C16" t="n">
-        <v>27.83505154639175</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>STAN9294.BAUER</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>56</v>
-      </c>
-      <c r="C17" t="n">
-        <v>17.31958762886598</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>SURESH.DHAWAN</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>37</v>
-      </c>
-      <c r="C18" t="n">
-        <v>11.44329896907217</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>TAMISHA.DAVY</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>80</v>
-      </c>
-      <c r="C19" t="n">
-        <v>24.74226804123711</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>THIE6554.DIALLO</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>202</v>
-      </c>
-      <c r="C20" t="n">
-        <v>62.47422680412371</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>XYZE1559.MACASIL</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>22</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6.804123711340206</v>
+        <v>13.05699481865285</v>
       </c>
     </row>
   </sheetData>
@@ -1528,7 +1411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1555,27 +1438,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ALMER.VILLAMIN</t>
+          <t>AGNE8120.CARUTH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ANJALI.BAKSHI</t>
+          <t>ARJUNBHAI.PATEL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -1585,7 +1468,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -1595,157 +1478,157 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>135</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ESSE0616.UDEH</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IREN797N.CABRERA</t>
+          <t>ESSE0616.UDEH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>63</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KHINEHAYMAR.THAUNG</t>
+          <t>INUK4091.QAVAVAU</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>174</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>JEEW9554.SITUMUDALIG</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LOWRHY-OTIENO.JAOKO</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MELA6559.ROCHETTE</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>161</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>MARI882N.ABDELKADER</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>84</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PATI2298.ATSIANGBE</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>OMAR6689.KHAN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RAMI9087.SAIHI</t>
+          <t>PATR5027.AMEH</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>45</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RARG046N.YEBOAH</t>
+          <t>PRINCE.FORSON</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>REJWAN.ISLAM</t>
+          <t>SEPIDEH.AZARIHASHJIN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
@@ -1755,7 +1638,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23">
@@ -1765,13 +1648,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>80</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TAMISHA.DAVY</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1781,71 +1664,61 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TANI2739.HOSSAINISLA</t>
+          <t>TUSHAR.BHATIA</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>WESL5337.CADETTE</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>WILDINE.JEUNE</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>WILDINE.JEUNE</t>
+          <t>YATI0689.YATIN</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>XYZE1559.MACASIL</t>
+          <t>ZAHIDGUL.MINHAS</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>164</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ZAHIDGUL.MINHAS</t>
+          <t>ZAKI0190.PHILLIPHORS</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>ZAKI0190.PHILLIPHORS</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>123</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1859,7 +1732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1896,157 +1769,89 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-2</v>
+        <v>-27</v>
       </c>
       <c r="C2" t="n">
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="D2" t="n">
-        <v>-222</v>
+        <v>-468</v>
       </c>
       <c r="E2" t="n">
-        <v>-220</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-5</v>
+        <v>-41</v>
       </c>
       <c r="C3" t="n">
-        <v>-125</v>
+        <v>-130</v>
       </c>
       <c r="D3" t="n">
-        <v>-521</v>
+        <v>-788</v>
       </c>
       <c r="E3" t="n">
-        <v>-827</v>
+        <v>-81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-58</v>
+        <v>-32</v>
       </c>
       <c r="C4" t="n">
-        <v>-8</v>
+        <v>-168</v>
       </c>
       <c r="D4" t="n">
-        <v>-426</v>
+        <v>-645</v>
       </c>
       <c r="E4" t="n">
-        <v>-458</v>
+        <v>-357</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B5" t="n">
         <v>-10</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-43</v>
       </c>
       <c r="D5" t="n">
-        <v>-141</v>
+        <v>-104</v>
       </c>
       <c r="E5" t="n">
-        <v>-139</v>
+        <v>-156</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-110</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>-365</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-2005</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-75</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-158</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-1310</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-1644</v>
+        <v>-595</v>
       </c>
     </row>
   </sheetData>

--- a/pick_counts.xlsx
+++ b/pick_counts.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,144 +466,261 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADOL798N.SEEMANNVAZQ</t>
+          <t>ABHI4088.ABHISHEK</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="C2" t="n">
-        <v>13.98963730569948</v>
+        <v>44.8041775456919</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ARJUNBHAI.PATEL</t>
+          <t>AGNE8120.CARUTH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>8.393782383419689</v>
+        <v>1.879895561357702</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>ANASTASIIA.MAKHTOUT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161</v>
+        <v>276</v>
       </c>
       <c r="C4" t="n">
-        <v>50.05181347150259</v>
+        <v>43.23759791122715</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="C5" t="n">
-        <v>8.393782383419689</v>
+        <v>27.10182767624021</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" t="n">
-        <v>14.92227979274611</v>
+        <v>7.206266318537859</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52</v>
+        <v>197</v>
       </c>
       <c r="C7" t="n">
-        <v>16.16580310880829</v>
+        <v>30.86161879895561</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>HARJ4282.SINGH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6217616580310881</v>
+        <v>7.989556135770234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SURESH.DHAWAN</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="C9" t="n">
-        <v>30.77720207253886</v>
+        <v>26.47519582245431</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>32.95336787564766</v>
+        <v>0.1566579634464752</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TUSHAR.BHATIA</t>
+          <t>LOWRHY-OTIENO.JAOKO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="C11" t="n">
-        <v>7.150259067357513</v>
+        <v>18.79895561357702</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ZAHIDGUL.MINHAS</t>
+          <t>MDSAIFUL.ISLAM</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C12" t="n">
-        <v>1.55440414507772</v>
+        <v>10.33942558746736</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NESR2403.ATTALAH</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>49</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.676240208877284</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RARG046N.YEBOAH</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4699738903394255</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>RAVI4279.THAKUR</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>29</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4.543080939947781</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SEPIDEH.AZARIHASHJIN</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>24</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.759791122715404</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>STAN9294.BAUER</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>94</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14.72584856396867</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TANI2739.HOSSAINISLA</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>378</v>
+      </c>
+      <c r="C18" t="n">
+        <v>59.21671018276762</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>THIE6554.DIALLO</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>351</v>
+      </c>
+      <c r="C19" t="n">
+        <v>54.98694516971279</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>WILDINE.JEUNE</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>141</v>
+      </c>
+      <c r="C20" t="n">
+        <v>22.088772845953</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>YATI0689.YATIN</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>39</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.109660574412533</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,92 +762,313 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ARJUNBHAI.PATEL</t>
+          <t>AGNE8120.CARUTH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>0.310880829015544</v>
+        <v>1.253263707571801</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>ANASTASIIA.MAKHTOUT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>2.797927461139896</v>
+        <v>2.663185378590078</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>ARJUNBHAI.PATEL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>16.78756476683938</v>
+        <v>4.22976501305483</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MARI882N.ABDELKADER</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="C5" t="n">
-        <v>2.487046632124352</v>
+        <v>23.18537859007833</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.243523316062176</v>
+        <v>0.1566579634464752</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="C7" t="n">
-        <v>9.326424870466321</v>
+        <v>28.04177545691906</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>HARJ4282.SINGH</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3133159268929503</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>JEEW9554.SITUMUDALIG</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7832898172323759</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>KADE3054.ZONGO</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1566579634464752</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>KHINEHAYMAR.THAUNG</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1566579634464752</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LOANA.MBONGO</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1566579634464752</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LOWRHY-OTIENO.JAOKO</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>35</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.483028720626631</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MARI882N.ABDELKADER</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.663185378590078</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NESR2403.ATTALAH</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7832898172323759</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>RARG046N.YEBOAH</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>20</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.133159268929504</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>RAVI4279.THAKUR</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3133159268929503</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SEPIDEH.AZARIHASHJIN</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>14</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.193211488250653</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>STAN9294.BAUER</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.819843342036553</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SURESH.DHAWAN</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3133159268929503</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TANI2739.HOSSAINISLA</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3133159268929503</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>THIE6554.DIALLO</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>17</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.663185378590078</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>WILDINE.JEUNE</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.446475195822454</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>ZAHIDGUL.MINHAS</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.243523316062176</v>
+      <c r="B24" t="n">
+        <v>17</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.663185378590078</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ZAKI0190.PHILLIPHORS</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.409921671018277</v>
       </c>
     </row>
   </sheetData>
@@ -744,7 +1082,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,92 +1110,222 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GIGNESH.PATEL</t>
+          <t>ANJALI.BAKSHI</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>10.88082901554404</v>
+        <v>1.879895561357702</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>BUDD0680.TENNAKOON</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
-        <v>4.352331606217616</v>
+        <v>5.169712793733681</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>DARL3515.GEDIN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C4" t="n">
-        <v>15.5440414507772</v>
+        <v>10.33942558746736</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SEPIDEH.AZARIHASHJIN</t>
+          <t>EDGAR.JIMENEZ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C5" t="n">
-        <v>47.56476683937824</v>
+        <v>23.65535248041775</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>EMILO.JOLIFILS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C6" t="n">
-        <v>26.73575129533679</v>
+        <v>17.70234986945169</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TUSHAR.BHATIA</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C7" t="n">
-        <v>3.730569948186528</v>
+        <v>11.12271540469974</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>KADE3054.ZONGO</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.819843342036553</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MALIESHA.THYRIAR</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>144</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22.55874673629243</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MATTHEW.DAVEY</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>63</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.869451697127937</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MICA0432.RIZKALLAMAR</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>45</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.049608355091383</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NANACY.ADDAI</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>152</v>
+      </c>
+      <c r="C12" t="n">
+        <v>23.81201044386423</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>REJWAN.ISLAM</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.663185378590078</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RICH3014.ISMORIN</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97</v>
+      </c>
+      <c r="C14" t="n">
+        <v>15.19582245430809</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>STAN9294.BAUER</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>18</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.819843342036553</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>WESL5337.CADETTE</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>15</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4.66321243523316</v>
+      <c r="B16" t="n">
+        <v>108</v>
+      </c>
+      <c r="C16" t="n">
+        <v>16.91906005221932</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ZAHIDGUL.MINHAS</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>85</v>
+      </c>
+      <c r="C17" t="n">
+        <v>13.31592689295039</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ZAIN3010.BENABDALLAH</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>80</v>
+      </c>
+      <c r="C18" t="n">
+        <v>12.53263707571801</v>
       </c>
     </row>
   </sheetData>
@@ -871,7 +1339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -899,118 +1367,118 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGNE8120.CARUTH</t>
+          <t>ADOL798N.SEEMANNVAZQ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="C2" t="n">
-        <v>52.84974093264248</v>
+        <v>6.422976501305483</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ARJUNBHAI.PATEL</t>
+          <t>ANASTASIIA.MAKHTOUT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C3" t="n">
-        <v>25.49222797927461</v>
+        <v>13.62924281984334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>ANJALI.BAKSHI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>7.150259067357513</v>
+        <v>4.386422976501305</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BUDD0680.TENNAKOON</t>
+          <t>ARJUNBHAI.PATEL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="C5" t="n">
-        <v>34.81865284974093</v>
+        <v>9.712793733681462</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>27.04663212435233</v>
+        <v>2.349869451697128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>BUDD0680.TENNAKOON</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>28.29015544041451</v>
+        <v>4.699738903394255</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GIGNESH.PATEL</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C8" t="n">
-        <v>22.69430051813471</v>
+        <v>10.18276762402089</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INUK4091.QAVAVAU</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="C9" t="n">
-        <v>29.84455958549223</v>
+        <v>27.10182767624021</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C10" t="n">
-        <v>26.1139896373057</v>
+        <v>17.54569190600522</v>
       </c>
     </row>
     <row r="11">
@@ -1020,179 +1488,205 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>15.5440414507772</v>
+        <v>2.506527415143603</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>LOWRHY-OTIENO.JAOKO</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C12" t="n">
-        <v>17.72020725388601</v>
+        <v>11.43603133159269</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MARI882N.ABDELKADER</t>
+          <t>MAKEDA.OLLIVIERRE</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="C13" t="n">
-        <v>11.50259067357513</v>
+        <v>17.70234986945169</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>MARI882N.ABDELKADER</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="C14" t="n">
-        <v>32.02072538860104</v>
+        <v>20.67885117493472</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C15" t="n">
-        <v>23.62694300518135</v>
+        <v>10.80939947780679</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>OMAR6689.KHAN</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C16" t="n">
-        <v>18.96373056994819</v>
+        <v>10.02610966057441</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PRINCE.FORSON</t>
+          <t>REJWAN.ISLAM</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C17" t="n">
-        <v>31.39896373056995</v>
+        <v>9.869451697127937</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>SEPIDEH.AZARIHASHJIN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>10.25906735751295</v>
+        <v>5.639686684073107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>STAN9294.BAUER</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="C19" t="n">
-        <v>26.42487046632124</v>
+        <v>3.759791122715404</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TUSHAR.BHATIA</t>
+          <t>SURESH.DHAWAN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C20" t="n">
-        <v>30.77720207253886</v>
+        <v>16.60574412532637</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>TANI2739.HOSSAINISLA</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="C21" t="n">
-        <v>25.80310880829015</v>
+        <v>4.699738903394255</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>WILDINE.JEUNE</t>
+          <t>WESL5337.CADETTE</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="C22" t="n">
-        <v>53.47150259067357</v>
+        <v>5.796344647519581</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>YATI0689.YATIN</t>
+          <t>WILDINE.JEUNE</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>34.81865284974093</v>
+        <v>3.289817232375979</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>YATI0689.YATIN</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>151</v>
+      </c>
+      <c r="C24" t="n">
+        <v>23.65535248041775</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ZAHIDGUL.MINHAS</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>50</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7.832898172323759</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>ZAKI0190.PHILLIPHORS</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>118</v>
-      </c>
-      <c r="C24" t="n">
-        <v>36.68393782383419</v>
+      <c r="B26" t="n">
+        <v>151</v>
+      </c>
+      <c r="C26" t="n">
+        <v>23.65535248041775</v>
       </c>
     </row>
   </sheetData>
@@ -1206,7 +1700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1234,170 +1728,339 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADOL798N.SEEMANNVAZQ</t>
+          <t>ABHI4088.ABHISHEK</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="C2" t="n">
-        <v>53.78238341968912</v>
+        <v>7.049608355091383</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>ADOL798N.SEEMANNVAZQ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>24.55958549222798</v>
+        <v>4.386422976501305</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>ANASTASIIA.MAKHTOUT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>10.25906735751295</v>
+        <v>13.78590078328982</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>47.87564766839378</v>
+        <v>2.976501305483028</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ESSE0616.UDEH</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>321</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>99.79274611398964</v>
+        <v>3.133159268929504</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="C7" t="n">
-        <v>3.10880829015544</v>
+        <v>23.02872062663185</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>EMILO.JOLIFILS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>171</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>53.16062176165803</v>
+        <v>1.096605744125326</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>ESSE0616.UDEH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C9" t="n">
-        <v>30.15544041450777</v>
+        <v>12.68929503916449</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>34.81865284974093</v>
+        <v>4.699738903394255</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SURESH.DHAWAN</t>
+          <t>LOWRHY-OTIENO.JAOKO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>199</v>
+        <v>43</v>
       </c>
       <c r="C11" t="n">
-        <v>61.86528497409326</v>
+        <v>6.736292428198433</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>MAKEDA.OLLIVIERRE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C12" t="n">
-        <v>26.73575129533679</v>
+        <v>19.11227154046997</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>MARI882N.ABDELKADER</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C13" t="n">
-        <v>33.26424870466321</v>
+        <v>12.53263707571801</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>MICA0432.RIZKALLAMAR</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>204</v>
+      </c>
+      <c r="C14" t="n">
+        <v>31.95822454308094</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NESR2403.ATTALAH</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>22</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.446475195822454</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PRINCE.FORSON</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>75</v>
+      </c>
+      <c r="C16" t="n">
+        <v>11.74934725848564</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>REJWAN.ISLAM</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>28</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.386422976501305</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SEPIDEH.AZARIHASHJIN</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>47</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7.362924281984334</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>STAN9294.BAUER</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>70</v>
+      </c>
+      <c r="C19" t="n">
+        <v>10.96605744125326</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SURESH.DHAWAN</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>145</v>
+      </c>
+      <c r="C20" t="n">
+        <v>22.7154046997389</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TANI2739.HOSSAINISLA</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>98</v>
+      </c>
+      <c r="C21" t="n">
+        <v>15.35248041775457</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>THIE6554.DIALLO</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>92</v>
+      </c>
+      <c r="C22" t="n">
+        <v>14.41253263707572</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>WESL5337.CADETTE</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>124</v>
+      </c>
+      <c r="C23" t="n">
+        <v>19.42558746736292</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>WILDINE.JEUNE</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>228</v>
+      </c>
+      <c r="C24" t="n">
+        <v>35.71801566579634</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>YATI0689.YATIN</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>42</v>
-      </c>
-      <c r="C14" t="n">
-        <v>13.05699481865285</v>
+      <c r="B25" t="n">
+        <v>37</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.796344647519581</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ZAHIDGUL.MINHAS</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>84</v>
+      </c>
+      <c r="C26" t="n">
+        <v>13.15926892950392</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ZAKI0190.PHILLIPHORS</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>103</v>
+      </c>
+      <c r="C27" t="n">
+        <v>16.13577023498694</v>
       </c>
     </row>
   </sheetData>
@@ -1411,7 +2074,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1434,291 +2097,401 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADOL798N.SEEMANNVAZQ</t>
+          <t>ABHI4088.ABHISHEK</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AGNE8120.CARUTH</t>
+          <t>ADOL798N.SEEMANNVAZQ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ARJUNBHAI.PATEL</t>
+          <t>AGNE8120.CARUTH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>ANASTASIIA.MAKHTOUT</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BUDD0680.TENNAKOON</t>
+          <t>ANJALI.BAKSHI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>ARJUNBHAI.PATEL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ESSE0616.UDEH</t>
+          <t>BUDD0680.TENNAKOON</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GIGNESH.PATEL</t>
+          <t>DARL3515.GEDIN</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>82</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INUK4091.QAVAVAU</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>120</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>EDGAR.JIMENEZ</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>EMILO.JOLIFILS</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MARI882N.ABDELKADER</t>
+          <t>ESSE0616.UDEH</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>JEEW9554.SITUMUDALIG</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OMAR6689.KHAN</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>KHINEHAYMAR.THAUNG</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>162</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PRINCE.FORSON</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>63</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SEPIDEH.AZARIHASHJIN</t>
+          <t>LOWRHY-OTIENO.JAOKO</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>51</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>MAKEDA.OLLIVIERRE</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SURESH.DHAWAN</t>
+          <t>MALIESHA.THYRIAR</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>MARI882N.ABDELKADER</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>46</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TUSHAR.BHATIA</t>
+          <t>MATTHEW.DAVEY</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>WILDINE.JEUNE</t>
+          <t>NANACY.ADDAI</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>43</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>YATI0689.YATIN</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>51</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ZAHIDGUL.MINHAS</t>
+          <t>PRINCE.FORSON</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>140</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ZAKI0190.PHILLIPHORS</t>
+          <t>RARG046N.YEBOAH</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>83</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>REJWAN.ISLAM</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SEPIDEH.AZARIHASHJIN</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>STAN9294.BAUER</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SURESH.DHAWAN</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>TANI2739.HOSSAINISLA</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>THIE6554.DIALLO</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>WESL5337.CADETTE</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>WILDINE.JEUNE</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>YATI0689.YATIN</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ZAHIDGUL.MINHAS</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ZAIN3010.BENABDALLAH</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +2565,7 @@
         <v>-41</v>
       </c>
       <c r="C3" t="n">
-        <v>-130</v>
+        <v>-88</v>
       </c>
       <c r="D3" t="n">
         <v>-788</v>
@@ -1809,7 +2582,7 @@
         <v>-32</v>
       </c>
       <c r="C4" t="n">
-        <v>-168</v>
+        <v>-137</v>
       </c>
       <c r="D4" t="n">
         <v>-645</v>
@@ -1826,7 +2599,7 @@
         <v>-10</v>
       </c>
       <c r="C5" t="n">
-        <v>-43</v>
+        <v>-34</v>
       </c>
       <c r="D5" t="n">
         <v>-104</v>
@@ -1845,7 +2618,7 @@
         <v>-110</v>
       </c>
       <c r="C6" t="n">
-        <v>-365</v>
+        <v>-283</v>
       </c>
       <c r="D6" t="n">
         <v>-2005</v>

--- a/pick_counts.xlsx
+++ b/pick_counts.xlsx
@@ -2505,7 +2505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2542,89 +2542,140 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-27</v>
+        <v>236</v>
       </c>
       <c r="C2" t="n">
-        <v>-24</v>
+        <v>274</v>
       </c>
       <c r="D2" t="n">
-        <v>-468</v>
+        <v>204</v>
       </c>
       <c r="E2" t="n">
-        <v>-1</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-41</v>
+        <v>127</v>
       </c>
       <c r="C3" t="n">
-        <v>-88</v>
+        <v>302</v>
       </c>
       <c r="D3" t="n">
-        <v>-788</v>
+        <v>495</v>
       </c>
       <c r="E3" t="n">
-        <v>-81</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32</v>
+        <v>91</v>
       </c>
       <c r="C4" t="n">
-        <v>-137</v>
+        <v>158</v>
       </c>
       <c r="D4" t="n">
-        <v>-645</v>
+        <v>487</v>
       </c>
       <c r="E4" t="n">
-        <v>-357</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>114</v>
+      </c>
+      <c r="D5" t="n">
+        <v>384</v>
+      </c>
+      <c r="E5" t="n">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C6" t="n">
+        <v>116</v>
+      </c>
+      <c r="D6" t="n">
+        <v>179</v>
+      </c>
+      <c r="E6" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>67</v>
+      </c>
+      <c r="C7" t="n">
+        <v>286</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C8" t="n">
         <v>23</v>
       </c>
-      <c r="B5" t="n">
-        <v>-10</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-34</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-104</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-156</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>-110</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-283</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-2005</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-595</v>
+      <c r="B9" t="n">
+        <v>570</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1273</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1749</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2505</v>
       </c>
     </row>
   </sheetData>

--- a/pick_counts.xlsx
+++ b/pick_counts.xlsx
@@ -33,12 +33,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -53,8 +59,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -438,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,17 +454,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>UserID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>PutwallPickingQuantity</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>UPH</t>
         </is>
@@ -466,248 +478,305 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ABHI4088.ABHISHEK</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>286</v>
+        <v>197</v>
       </c>
       <c r="C2" t="n">
-        <v>44.8041775456919</v>
+        <v>44</v>
+      </c>
+      <c r="D2" t="n">
+        <v>268.64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AGNE8120.CARUTH</t>
+          <t>ANASTASIIA.MAKHTOUT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>276</v>
       </c>
       <c r="C3" t="n">
-        <v>1.879895561357702</v>
+        <v>91</v>
+      </c>
+      <c r="D3" t="n">
+        <v>181.98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ANASTASIIA.MAKHTOUT</t>
+          <t>ABHI4088.ABHISHEK</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C4" t="n">
-        <v>43.23759791122715</v>
+        <v>104</v>
+      </c>
+      <c r="D4" t="n">
+        <v>165</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C5" t="n">
-        <v>27.10182767624021</v>
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>151.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="C6" t="n">
-        <v>7.206266318537859</v>
+        <v>76</v>
+      </c>
+      <c r="D6" t="n">
+        <v>136.58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>LOWRHY-OTIENO.JAOKO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="C7" t="n">
-        <v>30.86161879895561</v>
+        <v>53</v>
+      </c>
+      <c r="D7" t="n">
+        <v>135.85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HARJ4282.SINGH</t>
+          <t>TANI2739.HOSSAINISLA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51</v>
+        <v>378</v>
       </c>
       <c r="C8" t="n">
-        <v>7.989556135770234</v>
+        <v>167</v>
+      </c>
+      <c r="D8" t="n">
+        <v>135.81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>STAN9294.BAUER</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="C9" t="n">
-        <v>26.47519582245431</v>
+        <v>46</v>
+      </c>
+      <c r="D9" t="n">
+        <v>122.61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>351</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1566579634464752</v>
+        <v>182</v>
+      </c>
+      <c r="D10" t="n">
+        <v>115.71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LOWRHY-OTIENO.JAOKO</t>
+          <t>WILDINE.JEUNE</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C11" t="n">
-        <v>18.79895561357702</v>
+        <v>88</v>
+      </c>
+      <c r="D11" t="n">
+        <v>96.14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MDSAIFUL.ISLAM</t>
+          <t>RAVI4279.THAKUR</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
-        <v>10.33942558746736</v>
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>SEPIDEH.AZARIHASHJIN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C13" t="n">
-        <v>7.676240208877284</v>
+        <v>6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RARG046N.YEBOAH</t>
+          <t>MDSAIFUL.ISLAM</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4699738903394255</v>
+        <v>19</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RAVI4279.THAKUR</t>
+          <t>RARG046N.YEBOAH</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>4.543080939947781</v>
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SEPIDEH.AZARIHASHJIN</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C16" t="n">
-        <v>3.759791122715404</v>
+        <v>18</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>AGNE8120.CARUTH</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>14.72584856396867</v>
+        <v>19</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TANI2739.HOSSAINISLA</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>378</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>59.21671018276762</v>
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>HARJ4282.SINGH</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="C19" t="n">
-        <v>54.98694516971279</v>
+        <v>17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>WILDINE.JEUNE</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="C20" t="n">
-        <v>22.088772845953</v>
+        <v>15</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -720,7 +789,22 @@
         <v>39</v>
       </c>
       <c r="C21" t="n">
-        <v>6.109660574412533</v>
+        <v>9</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Average UPH</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr"/>
+      <c r="C22" s="1" t="inlineStr"/>
+      <c r="D22" s="1" t="n">
+        <v>150.97</v>
       </c>
     </row>
   </sheetData>
@@ -734,7 +818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -743,17 +827,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>UserID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>RegularPickQuantity</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>UPH</t>
         </is>
@@ -762,300 +851,369 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGNE8120.CARUTH</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>179</v>
       </c>
       <c r="C2" t="n">
-        <v>1.253263707571801</v>
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>282.63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ANASTASIIA.MAKHTOUT</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="C3" t="n">
-        <v>2.663185378590078</v>
+        <v>110</v>
+      </c>
+      <c r="D3" t="n">
+        <v>80.73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ARJUNBHAI.PATEL</t>
+          <t>WILDINE.JEUNE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>4.22976501305483</v>
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>SEPIDEH.AZARIHASHJIN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>23.18537859007833</v>
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>AGNE8120.CARUTH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1566579634464752</v>
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>28.04177545691906</v>
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HARJ4282.SINGH</t>
+          <t>ZAHIDGUL.MINHAS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3133159268929503</v>
+        <v>19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7832898172323759</v>
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>TANI2739.HOSSAINISLA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1566579634464752</v>
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KHINEHAYMAR.THAUNG</t>
+          <t>SURESH.DHAWAN</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1566579634464752</v>
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>STAN9294.BAUER</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1566579634464752</v>
+        <v>20</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LOWRHY-OTIENO.JAOKO</t>
+          <t>RAVI4279.THAKUR</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.483028720626631</v>
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MARI882N.ABDELKADER</t>
+          <t>RARG046N.YEBOAH</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C14" t="n">
-        <v>2.663185378590078</v>
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>MARI882N.ABDELKADER</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7832898172323759</v>
+        <v>15</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RARG046N.YEBOAH</t>
+          <t>ANASTASIIA.MAKHTOUT</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C16" t="n">
-        <v>3.133159268929504</v>
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RAVI4279.THAKUR</t>
+          <t>LOWRHY-OTIENO.JAOKO</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3133159268929503</v>
+        <v>23</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SEPIDEH.AZARIHASHJIN</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>2.193211488250653</v>
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>KHINEHAYMAR.THAUNG</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>2.819843342036553</v>
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SURESH.DHAWAN</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3133159268929503</v>
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TANI2739.HOSSAINISLA</t>
+          <t>JEEW9554.SITUMUDALIG</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3133159268929503</v>
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>HARJ4282.SINGH</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>2.663185378590078</v>
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>WILDINE.JEUNE</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>3.446475195822454</v>
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ZAHIDGUL.MINHAS</t>
+          <t>ARJUNBHAI.PATEL</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>2.663185378590078</v>
+        <v>7</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1068,7 +1226,22 @@
         <v>9</v>
       </c>
       <c r="C25" t="n">
-        <v>1.409921671018277</v>
+        <v>12</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Average UPH</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr"/>
+      <c r="C26" s="1" t="inlineStr"/>
+      <c r="D26" s="1" t="n">
+        <v>104.69</v>
       </c>
     </row>
   </sheetData>

--- a/pick_counts.xlsx
+++ b/pick_counts.xlsx
@@ -1512,7 +1512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1521,17 +1521,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>UserID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>ReplenishmentPickQuantity</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>UPH</t>
         </is>
@@ -1540,105 +1545,129 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADOL798N.SEEMANNVAZQ</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="C2" t="n">
-        <v>6.422976501305483</v>
+        <v>63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>164.76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ANASTASIIA.MAKHTOUT</t>
+          <t>MAKEDA.OLLIVIERRE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C3" t="n">
-        <v>13.62924281984334</v>
+        <v>70</v>
+      </c>
+      <c r="D3" t="n">
+        <v>96.86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ANJALI.BAKSHI</t>
+          <t>SURESH.DHAWAN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="C4" t="n">
-        <v>4.386422976501305</v>
+        <v>66</v>
+      </c>
+      <c r="D4" t="n">
+        <v>96.36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ARJUNBHAI.PATEL</t>
+          <t>ZAKI0190.PHILLIPHORS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="C5" t="n">
-        <v>9.712793733681462</v>
+        <v>97</v>
+      </c>
+      <c r="D5" t="n">
+        <v>93.40000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>ANASTASIIA.MAKHTOUT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="C6" t="n">
-        <v>2.349869451697128</v>
+        <v>66</v>
+      </c>
+      <c r="D6" t="n">
+        <v>79.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BUDD0680.TENNAKOON</t>
+          <t>YATI0689.YATIN</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="C7" t="n">
-        <v>4.699738903394255</v>
+        <v>122</v>
+      </c>
+      <c r="D7" t="n">
+        <v>74.26000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>MARI882N.ABDELKADER</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="C8" t="n">
-        <v>10.18276762402089</v>
+        <v>108</v>
+      </c>
+      <c r="D8" t="n">
+        <v>73.33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>SEPIDEH.AZARIHASHJIN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="C9" t="n">
-        <v>27.10182767624021</v>
+        <v>30</v>
+      </c>
+      <c r="D9" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -1651,20 +1680,26 @@
         <v>112</v>
       </c>
       <c r="C10" t="n">
-        <v>17.54569190600522</v>
+        <v>94</v>
+      </c>
+      <c r="D10" t="n">
+        <v>71.48999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="C11" t="n">
-        <v>2.506527415143603</v>
+        <v>59</v>
+      </c>
+      <c r="D11" t="n">
+        <v>70.17</v>
       </c>
     </row>
     <row r="12">
@@ -1677,137 +1712,170 @@
         <v>73</v>
       </c>
       <c r="C12" t="n">
-        <v>11.43603133159269</v>
+        <v>68</v>
+      </c>
+      <c r="D12" t="n">
+        <v>64.41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MAKEDA.OLLIVIERRE</t>
+          <t>ZAHIDGUL.MINHAS</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="C13" t="n">
-        <v>17.70234986945169</v>
+        <v>48</v>
+      </c>
+      <c r="D13" t="n">
+        <v>62.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MARI882N.ABDELKADER</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="C14" t="n">
-        <v>20.67885117493472</v>
+        <v>67</v>
+      </c>
+      <c r="D14" t="n">
+        <v>58.21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>WESL5337.CADETTE</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>10.80939947780679</v>
+        <v>39</v>
+      </c>
+      <c r="D15" t="n">
+        <v>56.92</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>REJWAN.ISLAM</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" t="n">
-        <v>10.02610966057441</v>
+        <v>69</v>
+      </c>
+      <c r="D16" t="n">
+        <v>54.78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>REJWAN.ISLAM</t>
+          <t>ARJUNBHAI.PATEL</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" t="n">
-        <v>9.869451697127937</v>
+        <v>71</v>
+      </c>
+      <c r="D17" t="n">
+        <v>52.39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SEPIDEH.AZARIHASHJIN</t>
+          <t>STAN9294.BAUER</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C18" t="n">
-        <v>5.639686684073107</v>
+        <v>30</v>
+      </c>
+      <c r="D18" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>BUDD0680.TENNAKOON</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
-        <v>3.759791122715404</v>
+        <v>38</v>
+      </c>
+      <c r="D19" t="n">
+        <v>47.37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SURESH.DHAWAN</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="C20" t="n">
-        <v>16.60574412532637</v>
+        <v>90</v>
+      </c>
+      <c r="D20" t="n">
+        <v>42.67</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TANI2739.HOSSAINISLA</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>4.699738903394255</v>
+        <v>14</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>TANI2739.HOSSAINISLA</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C22" t="n">
-        <v>5.796344647519581</v>
+        <v>19</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1820,46 +1888,70 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>3.289817232375979</v>
+        <v>22</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>YATI0689.YATIN</t>
+          <t>ANJALI.BAKSHI</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>23.65535248041775</v>
+        <v>29</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ZAHIDGUL.MINHAS</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C25" t="n">
-        <v>7.832898172323759</v>
+        <v>24</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ZAKI0190.PHILLIPHORS</t>
+          <t>ADOL798N.SEEMANNVAZQ</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="C26" t="n">
-        <v>23.65535248041775</v>
+        <v>14</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Average UPH</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr"/>
+      <c r="C27" s="1" t="inlineStr"/>
+      <c r="D27" s="1" t="n">
+        <v>72.58</v>
       </c>
     </row>
   </sheetData>

--- a/pick_counts.xlsx
+++ b/pick_counts.xlsx
@@ -12,10 +12,13 @@
     <sheet name="SINGLE PACKING" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="REGULAR PICK" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="SINGLE PICK" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="REPLENISHMENT PICK" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="QUICK MOVE" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="IDLE TIME" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Total Units picked by hour" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="multi PACKING" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="REPLENISHMENT PICK" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="QUICK MOVE" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="IDLE TIME" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Total Units picked by hour" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="SINGLE UNITS PICKED BY ZONE" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Total Units packed by hour" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25,7 +28,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -33,8 +36,14 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -45,6 +54,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00ADD8E6"/>
         <bgColor rgb="00ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EEF5FF"/>
+        <bgColor rgb="00EEF5FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -60,9 +75,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -440,13 +467,197 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Regular Pick</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Single Pick</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Replenishment Pick</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Putwall Pick</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>315</v>
+      </c>
+      <c r="E2" t="n">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>575</v>
+      </c>
+      <c r="E3" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>90</v>
+      </c>
+      <c r="C4" t="n">
+        <v>81</v>
+      </c>
+      <c r="D4" t="n">
+        <v>435</v>
+      </c>
+      <c r="E4" t="n">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>66</v>
+      </c>
+      <c r="D5" t="n">
+        <v>287</v>
+      </c>
+      <c r="E5" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>52</v>
+      </c>
+      <c r="C6" t="n">
+        <v>87</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>200</v>
+      </c>
+      <c r="C7" t="n">
+        <v>126</v>
+      </c>
+      <c r="D7" t="n">
+        <v>27</v>
+      </c>
+      <c r="E7" t="n">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>25</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>368</v>
+      </c>
+      <c r="C9" t="n">
+        <v>435</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1689</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2759</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,259 +668,73 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>UserID</t>
+          <t>ZONE</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>PutwallPickingQuantity</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>UPH</t>
+          <t>QUANTITY PICKED</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NAWAF.HAGE.CHEHADE</t>
+          <t>3F</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78</v>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>150.97</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LOVEDEEP.SINGH</t>
+          <t>1Y</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>108</v>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>129.6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SARVJEET.SINGH14910</t>
+          <t>1H</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73</v>
-      </c>
-      <c r="C4" t="n">
-        <v>48</v>
-      </c>
-      <c r="D4" t="n">
-        <v>91.25</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ABDRAMANE.YAYA.BECHIR</t>
+          <t>1G</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>91</v>
-      </c>
-      <c r="C5" t="n">
-        <v>60</v>
-      </c>
-      <c r="D5" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHOROMA.ADOUM.BAYE</t>
+          <t>3D</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43</v>
-      </c>
-      <c r="C6" t="n">
-        <v>35</v>
-      </c>
-      <c r="D6" t="n">
-        <v>73.70999999999999</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AMANDEEP.KAUR3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39</v>
-      </c>
-      <c r="C7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>BOUBA.BAKARI.ALI</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>DJOUMA.KOSSI.MAHAMAT.ALI</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>20</v>
-      </c>
-      <c r="C9" t="n">
-        <v>15</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>FATEMEH.EBRAHIMI</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>LOANA.MBONGO</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>MOHAMMED.MAHMOOD</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>35</v>
-      </c>
-      <c r="C12" t="n">
-        <v>11</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>OMAR.BAHAMID</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>25</v>
-      </c>
-      <c r="C13" t="n">
-        <v>8</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>PRAJWAL.SINGH14607</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>42</v>
-      </c>
-      <c r="C14" t="n">
-        <v>13</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>SONIA.BHARTI</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>26</v>
-      </c>
-      <c r="C15" t="n">
-        <v>12</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Average UPH</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="inlineStr"/>
-      <c r="C16" s="1" t="inlineStr"/>
-      <c r="D16" s="1" t="n">
-        <v>107.31</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -717,13 +742,106 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Single Pack</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Multi Pack</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2" t="n">
+        <v>113</v>
+      </c>
+      <c r="C2" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3" t="n">
+        <v>170</v>
+      </c>
+      <c r="C3" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B4" t="n">
+        <v>245</v>
+      </c>
+      <c r="C4" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B5" t="n">
+        <v>149</v>
+      </c>
+      <c r="C5" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>677</v>
+      </c>
+      <c r="C6" t="n">
+        <v>747</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,7 +857,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>SinglePackingQuantity</t>
+          <t>PutwallPickingQuantity</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -756,189 +874,253 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MURSAL.MADADYAR</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52</v>
+        <v>293</v>
       </c>
       <c r="C2" t="n">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="D2" t="n">
-        <v>72.56</v>
+        <v>204.42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ASSANE.NDIAYE</t>
+          <t>SURESH.DHAWAN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="C3" t="n">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>40.62</v>
+        <v>192.44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NANCY.WOOD</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>405</v>
       </c>
       <c r="C4" t="n">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="D4" t="n">
-        <v>37.04</v>
+        <v>169.93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FLOYD.MCLEISH</t>
+          <t>YATI0689.YATIN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>304</v>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="D5" t="n">
-        <v>34.55</v>
+        <v>168.89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JASMINECAROLE.NAMEKONG</t>
+          <t>ANASTASIIA.MAKHTOUT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="C6" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D6" t="n">
-        <v>33.8</v>
+        <v>167.03</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BLOCHE.BAKELA</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27</v>
+        <v>383</v>
       </c>
       <c r="C7" t="n">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="D7" t="n">
-        <v>31.76</v>
+        <v>139.27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AHME0710.JUBRAN</t>
+          <t>LOWRHY-OTIENO.JAOKO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="C8" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D8" t="n">
-        <v>25.33</v>
+        <v>131.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MARIO.OUIMET</t>
+          <t>XUAN754N.LU</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31</v>
+        <v>343</v>
       </c>
       <c r="C9" t="n">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="D9" t="n">
-        <v>21.88</v>
+        <v>127.83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEI145N.BOCOUM</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>257</v>
       </c>
       <c r="C10" t="n">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>124.35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>JOSE202N.OSEMWOTA</t>
+          <t>PATI2298.ATSIANGBE</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>JOSEPH.MARDINI</t>
+          <t>AHME0710.JUBRAN</t>
         </is>
       </c>
       <c r="B12" t="n">
+        <v>14</v>
+      </c>
+      <c r="C12" t="n">
         <v>3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>KADE3054.ZONGO</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>41</v>
+      </c>
+      <c r="C13" t="n">
+        <v>17</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>KHINEHAYMAR.THAUNG</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MICA0432.RIZKALLAMAR</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>STAN9294.BAUER</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>26</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr"/>
-      <c r="C13" s="1" t="inlineStr"/>
-      <c r="D13" s="1" t="n">
-        <v>37.2</v>
+      <c r="B17" s="1" t="inlineStr"/>
+      <c r="C17" s="1" t="inlineStr"/>
+      <c r="D17" s="1" t="n">
+        <v>148.45</v>
       </c>
     </row>
   </sheetData>
@@ -946,170 +1128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>UserID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>RegularPickQuantity</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>UPH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>FATEMEH.EBRAHIMI</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5504587155963303</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MOHAMMED.MAHMOOD</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5504587155963303</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>NAWAF.HAGE.CHEHADE</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.201834862385321</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SAJEELUR.REHMAN15006</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.100917431192661</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>UserID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>SinglePickQuantity</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>UPH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>DIAN4065.ENTRIALGO</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>27</v>
-      </c>
-      <c r="C2" t="n">
-        <v>14.86238532110092</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>KOMALDEEP.KAUR14903</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>38</v>
-      </c>
-      <c r="C3" t="n">
-        <v>20.91743119266055</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>YASER.KABOUDANI</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.752293577981651</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1131,7 +1150,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ReplenishmentPickQuantity</t>
+          <t>SinglePackingQuantity</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1148,14 +1167,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>YEVA.NAZARKINA</t>
+          <t>MARIA.GALDAMEZ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="D2" t="n">
         <v>100</v>
@@ -1164,222 +1183,222 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MURLIMANOHAR.MOTWANIBHATI</t>
+          <t>MILA1082.PEREZ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D3" t="n">
-        <v>88.23999999999999</v>
+        <v>44.69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MOHAMMED.MAHMOOD</t>
+          <t>XUAN754N.LU</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D4" t="n">
-        <v>81.18000000000001</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OMAR.BAHAMID</t>
+          <t>ZAKI0190.PHILLIPHORS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="D5" t="n">
-        <v>69</v>
+        <v>38.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>YASER.KABOUDANI</t>
+          <t>SUPRIYA.THAKUR</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="C6" t="n">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="D6" t="n">
-        <v>64</v>
+        <v>35.35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ARSENE.LOULENDO</t>
+          <t>ALMER.VILLAMIN</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>44</v>
       </c>
       <c r="C7" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MOHAMMED.SALEM</t>
+          <t>MAKEDA.OLLIVIERRE</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="D8" t="n">
-        <v>49.5</v>
+        <v>34.39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GAGA4290.KALSI</t>
+          <t>JOSEPH.MARDINI</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n">
-        <v>41.25</v>
+        <v>31.76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MACLY.BEAUBRUN</t>
+          <t>PRITTY.MAZUMDER</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="C10" t="n">
-        <v>48</v>
+        <v>263</v>
       </c>
       <c r="D10" t="n">
-        <v>38.75</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MIKAEL.SAMUEL</t>
+          <t>CHEI145N.BOCOUM</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D11" t="n">
-        <v>38.18</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>KOMALDEEP.KAUR14903</t>
+          <t>MATTHEW.BARRETT</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C12" t="n">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>29.78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BOUBA.BAKARI.ALI</t>
+          <t>PATR5027.AMEH</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="C13" t="n">
-        <v>26</v>
+        <v>301</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>28.11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NAWAF.HAGE.CHEHADE</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>22.53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>TOMA9753.LANDUKULUPE</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>16.85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>OUMAR.DIOP</t>
+          <t>KARL.DARANTINAO</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1388,14 +1407,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SAJEELUR.REHMAN15006</t>
+          <t>JOSE202N.OSEMWOTA</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1404,14 +1423,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SONIA.BHARTI</t>
+          <t>CHARLES.VELASCO</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1420,14 +1439,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CARL.NITCHELL.LUCCE</t>
+          <t>XYZE1559.MACASIL</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1442,7 +1461,767 @@
       <c r="B20" s="1" t="inlineStr"/>
       <c r="C20" s="1" t="inlineStr"/>
       <c r="D20" s="1" t="n">
-        <v>63.01</v>
+        <v>37.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>UserID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>RegularPickQuantity</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>UPH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ADOL798N.SEEMANNVAZQ</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.160427807486631</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ANASTASIIA.MAKHTOUT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.283422459893048</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ANJALI.BAKSHI</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>16</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.566844919786096</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DIAN4065.ENTRIALGO</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>109</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17.48663101604278</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>IREN797N.CABRERA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>38</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.096256684491979</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>KADE3054.ZONGO</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>23</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.689839572192513</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LOWRHY-OTIENO.JAOKO</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.122994652406417</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MICA0432.RIZKALLAMAR</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.481283422459893</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PRINCE.FORSON</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>41</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.577540106951871</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>REJWAN.ISLAM</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>42</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.737967914438503</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>STAN9294.BAUER</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.481283422459893</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SURESH.DHAWAN</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>16</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.566844919786096</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>WESL5337.CADETTE</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.283422459893048</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ZAHIDGUL.MINHAS</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>53</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8.502673796791443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>UserID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>SinglePickQuantity</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>UPH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ADOL798N.SEEMANNVAZQ</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6417112299465241</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ANASTASIIA.MAKHTOUT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>29</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.652406417112299</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BUDD0680.TENNAKOON</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>22</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.529411764705882</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DARL3515.GEDIN</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>24</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.850267379679144</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KADE3054.ZONGO</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>54</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.663101604278074</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MICA0432.RIZKALLAMAR</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>125</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20.05347593582888</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NANACY.ADDAI</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>53</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.502673796791443</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>WESL5337.CADETTE</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>44</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.058823529411764</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ZAIN3010.BENABDALLAH</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>80</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12.83422459893048</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>UserID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>multiPackingQuantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>UPH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>JOSEPH.MARDINI</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>250</v>
+      </c>
+      <c r="C2" t="n">
+        <v>105</v>
+      </c>
+      <c r="D2" t="n">
+        <v>142.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CHARLES.VELASCO</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>540</v>
+      </c>
+      <c r="C3" t="n">
+        <v>278</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MARY0067.BOULIANNEBL</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>502</v>
+      </c>
+      <c r="C4" t="n">
+        <v>297</v>
+      </c>
+      <c r="D4" t="n">
+        <v>101.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MILA1082.PEREZ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>321</v>
+      </c>
+      <c r="C5" t="n">
+        <v>195</v>
+      </c>
+      <c r="D5" t="n">
+        <v>98.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KARL.DARANTINAO</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>215</v>
+      </c>
+      <c r="C6" t="n">
+        <v>137</v>
+      </c>
+      <c r="D6" t="n">
+        <v>94.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>XYZE1559.MACASIL</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>423</v>
+      </c>
+      <c r="C7" t="n">
+        <v>284</v>
+      </c>
+      <c r="D7" t="n">
+        <v>89.37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CHEI145N.BOCOUM</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>224</v>
+      </c>
+      <c r="C8" t="n">
+        <v>164</v>
+      </c>
+      <c r="D8" t="n">
+        <v>81.95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PATI2298.ATSIANGBE</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>120</v>
+      </c>
+      <c r="C9" t="n">
+        <v>102</v>
+      </c>
+      <c r="D9" t="n">
+        <v>70.59</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>JOSE202N.OSEMWOTA</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>252</v>
+      </c>
+      <c r="C10" t="n">
+        <v>226</v>
+      </c>
+      <c r="D10" t="n">
+        <v>66.90000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ZAKI0190.PHILLIPHORS</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>40</v>
+      </c>
+      <c r="C11" t="n">
+        <v>36</v>
+      </c>
+      <c r="D11" t="n">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>JEEW9554.SITUMUDALIG</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>293</v>
+      </c>
+      <c r="C12" t="n">
+        <v>269</v>
+      </c>
+      <c r="D12" t="n">
+        <v>65.34999999999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>XUAN754N.LU</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>63</v>
+      </c>
+      <c r="C13" t="n">
+        <v>62</v>
+      </c>
+      <c r="D13" t="n">
+        <v>60.97</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MAKEDA.OLLIVIERRE</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>46</v>
+      </c>
+      <c r="C14" t="n">
+        <v>50</v>
+      </c>
+      <c r="D14" t="n">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ALMER.VILLAMIN</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>156</v>
+      </c>
+      <c r="C15" t="n">
+        <v>193</v>
+      </c>
+      <c r="D15" t="n">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MARIA.GALDAMEZ</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>47</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BOHD0676.KUSHLIAK</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="n">
+        <v>11</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PATR5027.AMEH</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>RFBASE</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>10</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SUPRIYA.THAKUR</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EZRA.RAMIREZ</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>DAVI129N.TEJA</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Average UPH</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr"/>
+      <c r="C23" s="1" t="inlineStr"/>
+      <c r="D23" s="1" t="n">
+        <v>82.8</v>
       </c>
     </row>
   </sheetData>
@@ -1456,7 +2235,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1465,17 +2244,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>UserID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>QuickMoveQuantity</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ReplenishmentPickQuantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>UPH</t>
         </is>
@@ -1484,92 +2268,365 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AMANDEEP.KAUR3</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224</v>
+        <v>63</v>
       </c>
       <c r="C2" t="n">
-        <v>123.302752293578</v>
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>102.16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ARSENE.LOULENDO</t>
+          <t>ANJALI.BAKSHI</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="C3" t="n">
-        <v>1.651376146788991</v>
+        <v>61</v>
+      </c>
+      <c r="D3" t="n">
+        <v>94.43000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GAGA4290.KALSI</t>
+          <t>ANASTASIIA.MAKHTOUT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C4" t="n">
-        <v>3.853211009174312</v>
+        <v>74</v>
+      </c>
+      <c r="D4" t="n">
+        <v>82.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MURLIMANOHAR.MOTWANIBHATI</t>
+          <t>WESL5337.CADETTE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="C5" t="n">
-        <v>8.807339449541285</v>
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PRAJWAL.SINGH14607</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="C6" t="n">
-        <v>83.6697247706422</v>
+        <v>64</v>
+      </c>
+      <c r="D6" t="n">
+        <v>78.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SINA.BAGHERI</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="C7" t="n">
-        <v>17.61467889908257</v>
+        <v>61</v>
+      </c>
+      <c r="D7" t="n">
+        <v>77.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SONIA.BHARTI</t>
+          <t>LOWRHY-OTIENO.JAOKO</t>
         </is>
       </c>
       <c r="B8" t="n">
+        <v>188</v>
+      </c>
+      <c r="C8" t="n">
+        <v>152</v>
+      </c>
+      <c r="D8" t="n">
+        <v>74.20999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ZAHIDGUL.MINHAS</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>184</v>
+      </c>
+      <c r="C9" t="n">
+        <v>162</v>
+      </c>
+      <c r="D9" t="n">
+        <v>68.15000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BUDD0680.TENNAKOON</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>71</v>
+      </c>
+      <c r="C10" t="n">
+        <v>71</v>
+      </c>
+      <c r="D10" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ZAKI0190.PHILLIPHORS</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>171</v>
+      </c>
+      <c r="C11" t="n">
+        <v>175</v>
+      </c>
+      <c r="D11" t="n">
+        <v>58.63</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PRINCE.FORSON</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>39</v>
+      </c>
+      <c r="C12" t="n">
+        <v>42</v>
+      </c>
+      <c r="D12" t="n">
+        <v>55.71</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>STAN9294.BAUER</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>153</v>
+      </c>
+      <c r="C13" t="n">
+        <v>177</v>
+      </c>
+      <c r="D13" t="n">
+        <v>51.86</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>REJWAN.ISLAM</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>67</v>
+      </c>
+      <c r="C14" t="n">
+        <v>83</v>
+      </c>
+      <c r="D14" t="n">
+        <v>48.43</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>KADE3054.ZONGO</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>47</v>
+      </c>
+      <c r="C15" t="n">
+        <v>67</v>
+      </c>
+      <c r="D15" t="n">
+        <v>42.09</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PATI2298.ATSIANGBE</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>30</v>
+      </c>
+      <c r="C16" t="n">
+        <v>44</v>
+      </c>
+      <c r="D16" t="n">
+        <v>40.91</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>IREN797N.CABRERA</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>62</v>
+      </c>
+      <c r="C17" t="n">
+        <v>97</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.35</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AHME0710.JUBRAN</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>9</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SURESH.DHAWAN</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>43</v>
+      </c>
+      <c r="C19" t="n">
+        <v>27</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>JEEW9554.SITUMUDALIG</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>28</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>XUAN754N.LU</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>25</v>
+      </c>
+      <c r="C21" t="n">
         <v>24</v>
       </c>
-      <c r="C8" t="n">
-        <v>13.21100917431193</v>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>DIAN4065.ENTRIALGO</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>50</v>
+      </c>
+      <c r="C22" t="n">
+        <v>27</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ADOL798N.SEEMANNVAZQ</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>17</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Average UPH</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr"/>
+      <c r="C24" s="1" t="inlineStr"/>
+      <c r="D24" s="1" t="n">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1583,7 +2640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1599,268 +2656,195 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>TotalIdleTime</t>
+          <t>QuickMoveQuantity</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>UPH</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ABDRAMANE.YAYA.BECHIR</t>
+          <t>ADOL798N.SEEMANNVAZQ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46</v>
+        <v>201</v>
+      </c>
+      <c r="C2" t="n">
+        <v>32.24598930481283</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AMANDEEP.KAUR3</t>
+          <t>AHME0710.JUBRAN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52</v>
+        <v>25</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.010695187165775</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ARSENE.LOULENDO</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58</v>
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.764705882352941</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BOUBA.BAKARI.ALI</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59</v>
+        <v>248</v>
+      </c>
+      <c r="C5" t="n">
+        <v>39.78609625668449</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CARL.NITCHELL.LUCCE</t>
+          <t>ESSE0616.UDEH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57</v>
+        <v>192</v>
+      </c>
+      <c r="C6" t="n">
+        <v>30.80213903743315</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHOROMA.ADOUM.BAYE</t>
+          <t>IREN797N.CABRERA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>70</v>
+        <v>25</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.010695187165775</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.62566844919786</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FATEMEH.EBRAHIMI</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93</v>
+        <v>145</v>
+      </c>
+      <c r="C9" t="n">
+        <v>23.2620320855615</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GAGA4290.KALSI</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>76</v>
+        <v>164</v>
+      </c>
+      <c r="C10" t="n">
+        <v>26.31016042780749</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KOMALDEEP.KAUR14903</t>
+          <t>STAN9294.BAUER</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43</v>
+        <v>123</v>
+      </c>
+      <c r="C11" t="n">
+        <v>19.73262032085561</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>SURESH.DHAWAN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>107</v>
+        <v>18</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.887700534759358</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LOVEDEEP.SINGH</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57</v>
+        <v>178</v>
+      </c>
+      <c r="C13" t="n">
+        <v>28.55614973262032</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MACLY.BEAUBRUN</t>
+          <t>WESL5337.CADETTE</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>58</v>
+        <v>101</v>
+      </c>
+      <c r="C14" t="n">
+        <v>16.20320855614973</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MIKAEL.SAMUEL</t>
+          <t>YATI0689.YATIN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>MOHAMMED.MAHMOOD</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>MOHAMMED.SALEM</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>MURLIMANOHAR.MOTWANIBHATI</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>NAWAF.HAGE.CHEHADE</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>OMAR.BAHAMID</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>PRAJWAL.SINGH14607</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>SAJEELUR.REHMAN15006</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>SARVJEET.SINGH14910</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>SINA.BAGHERI</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>SONIA.BHARTI</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>YASER.KABOUDANI</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>YEVA.NAZARKINA</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>63</v>
+        <v>630</v>
+      </c>
+      <c r="C15" t="n">
+        <v>101.0695187165775</v>
       </c>
     </row>
   </sheetData>
@@ -1874,177 +2858,540 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Hour</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Regular Pick</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Single Pick</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Replenishment Pick</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Putwall Pick</t>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>UserID</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>TotalIdleTime</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>FirstActionTime</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>LastActionTime</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>114</v>
-      </c>
-      <c r="E2" t="n">
-        <v>298</v>
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>ADOL798N.SEEMANNVAZQ</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>286</v>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00 AM</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>05:31:00 AM</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>54</v>
-      </c>
-      <c r="D3" t="n">
-        <v>472</v>
-      </c>
-      <c r="E3" t="n">
-        <v>289</v>
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>ANJALI.BAKSHI</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>274</v>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00 AM</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>05:39:00 AM</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>NANACY.ADDAI</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>270</v>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>03:42:00 AM</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>06:06:00 AM</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>DARL3515.GEDIN</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>269</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>03:45:00 AM</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>05:43:00 AM</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>REJWAN.ISLAM</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>258</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00 AM</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>06:07:00 AM</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>PRINCE.FORSON</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>246</v>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>02:11:00 AM</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>05:52:00 AM</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>ZAIN3010.BENABDALLAH</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>244</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>03:47:00 AM</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>06:10:00 AM</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>70</v>
-      </c>
-      <c r="D9" t="n">
-        <v>586</v>
-      </c>
-      <c r="E9" t="n">
-        <v>587</v>
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>BUDD0680.TENNAKOON</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>244</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>12:01:00 AM</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>05:41:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>SURESH.DHAWAN</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>209</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>12:02:00 AM</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>05:55:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>IREN797N.CABRERA</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>207</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00 AM</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>06:01:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>ESSE0616.UDEH</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>206</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>01:07:00 AM</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>04:12:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>DEVI789.SINGH</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00 AM</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>06:03:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>ANASTASIIA.MAKHTOUT</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>169</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00 AM</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>06:08:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>WESL5337.CADETTE</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>167</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00 AM</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>05:48:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>MICA0432.RIZKALLAMAR</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>153</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00 AM</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>06:14:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>GIGNESH.PATEL</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>147</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00 AM</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>03:07:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>NESR2403.ATTALAH</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>147</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00 AM</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>06:02:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>ZAHIDGUL.MINHAS</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>140</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>12:12:00 AM</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>05:48:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>LOWRHY-OTIENO.JAOKO</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>121</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00 AM</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>06:09:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>STAN9294.BAUER</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>116</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00 AM</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>06:12:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>DIAN4065.ENTRIALGO</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>115</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>12:01:00 AM</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>06:04:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>YATI0689.YATIN</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>113</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00 AM</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>06:02:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>KADE3054.ZONGO</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>112</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00 AM</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>06:00:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>AHME0710.JUBRAN</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>103</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00 AM</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>02:01:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>THIE6554.DIALLO</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>74</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00 AM</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>05:54:00 AM</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/pick_counts.xlsx
+++ b/pick_counts.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="IDLE TIME" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="PUTWALL PICKING" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="REPLENISHMENT PICK" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="PUTWALL PICKING" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="SINGLE PACKING" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="multi PACKING" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="REGULAR PICK" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="SINGLE PICK" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Total Units picked by hour" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="SINGLE UNITS PICKED BY ZONE" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="multi PACKING" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="SINGLE PACKING" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="REPLENISHMENT PICK" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="QUICK MOVE" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="IDLE TIME" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Total Units picked by hour" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Total Units packed by hour" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
@@ -27,7 +27,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -38,8 +38,11 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -50,6 +53,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00ADD8E6"/>
         <bgColor rgb="00ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EEF5FF"/>
+        <bgColor rgb="00EEF5FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -65,12 +74,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -454,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,325 +481,139 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>UserID</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>SinglePackingQuantity</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>UPH</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Single Pick</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Replenishment Pick</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Multi Pick</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>MARIA.GALDAMEZ</t>
-        </is>
+      <c r="A2" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="C2" t="n">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MILA1082.PEREZ</t>
-        </is>
+      <c r="A3" t="n">
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="C3" t="n">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="D3" t="n">
-        <v>44.69</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>XUAN754N.LU</t>
-        </is>
+      <c r="A4" t="n">
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="D4" t="n">
-        <v>44</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ZAKI0190.PHILLIPHORS</t>
-        </is>
+      <c r="A5" t="n">
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D5" t="n">
-        <v>38.24</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>SUPRIYA.THAKUR</t>
-        </is>
+      <c r="A6" t="n">
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="C6" t="n">
-        <v>258</v>
+        <v>151</v>
       </c>
       <c r="D6" t="n">
-        <v>35.35</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ALMER.VILLAMIN</t>
-        </is>
+      <c r="A7" t="n">
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="C7" t="n">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>35.2</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MAKEDA.OLLIVIERRE</t>
-        </is>
+      <c r="A8" t="n">
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>34.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>JOSEPH.MARDINI</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18</v>
+        <v>623</v>
       </c>
       <c r="C9" t="n">
-        <v>34</v>
+        <v>905</v>
       </c>
       <c r="D9" t="n">
-        <v>31.76</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>PRITTY.MAZUMDER</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>137</v>
-      </c>
-      <c r="C10" t="n">
-        <v>263</v>
-      </c>
-      <c r="D10" t="n">
-        <v>31.25</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>CHEI145N.BOCOUM</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>20</v>
-      </c>
-      <c r="C11" t="n">
-        <v>39</v>
-      </c>
-      <c r="D11" t="n">
-        <v>30.77</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>MATTHEW.BARRETT</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>67</v>
-      </c>
-      <c r="C12" t="n">
-        <v>135</v>
-      </c>
-      <c r="D12" t="n">
-        <v>29.78</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>PATR5027.AMEH</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>141</v>
-      </c>
-      <c r="C13" t="n">
-        <v>301</v>
-      </c>
-      <c r="D13" t="n">
-        <v>28.11</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>BOHD0676.KUSHLIAK</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>104</v>
-      </c>
-      <c r="C14" t="n">
-        <v>277</v>
-      </c>
-      <c r="D14" t="n">
-        <v>22.53</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>TOMA9753.LANDUKULUPE</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>57</v>
-      </c>
-      <c r="C15" t="n">
-        <v>203</v>
-      </c>
-      <c r="D15" t="n">
-        <v>16.85</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>KARL.DARANTINAO</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>JOSE202N.OSEMWOTA</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>CHARLES.VELASCO</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>XYZE1559.MACASIL</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Average UPH</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr"/>
-      <c r="C20" s="2" t="inlineStr"/>
-      <c r="D20" s="2" t="n">
-        <v>37.4</v>
+        <v>1796</v>
       </c>
     </row>
   </sheetData>
@@ -795,7 +627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,59 +654,92 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="C2" t="n">
-        <v>165</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="C3" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>245</v>
+        <v>101</v>
       </c>
       <c r="C4" t="n">
-        <v>214</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C5" t="n">
-        <v>110</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>181</v>
+      </c>
+      <c r="C6" t="n">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>53</v>
+      </c>
+      <c r="C7" t="n">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>677</v>
-      </c>
-      <c r="C6" t="n">
-        <v>747</v>
+      <c r="B9" t="n">
+        <v>902</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1521</v>
       </c>
     </row>
   </sheetData>
@@ -888,19 +753,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -910,18 +769,270 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>TotalIdleTime</t>
+          <t>PutwallPickingQuantity</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>FirstActionTime</t>
+          <t>Time</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>LastActionTime</t>
-        </is>
+          <t>UPH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NESR2403.ATTALAH</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>277</v>
+      </c>
+      <c r="C2" t="n">
+        <v>74</v>
+      </c>
+      <c r="D2" t="n">
+        <v>224.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>JEEW9554.SITUMUDALIG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>88</v>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>KADE3054.ZONGO</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>113</v>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>141.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>THIE6554.DIALLO</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>402</v>
+      </c>
+      <c r="C5" t="n">
+        <v>193</v>
+      </c>
+      <c r="D5" t="n">
+        <v>124.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ZAKI0190.PHILLIPHORS</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>71</v>
+      </c>
+      <c r="C6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D6" t="n">
+        <v>121.71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GEEPESH.X</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>77</v>
+      </c>
+      <c r="C7" t="n">
+        <v>45</v>
+      </c>
+      <c r="D7" t="n">
+        <v>102.67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ESSE0616.UDEH</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>56</v>
+      </c>
+      <c r="C8" t="n">
+        <v>26</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>KAYLEESA.LESLIE</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>26</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MAKEDA.OLLIVIERRE</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MARY0067.BOULIANNEBL</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>68</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MELA6559.ROCHETTE</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>49</v>
+      </c>
+      <c r="C12" t="n">
+        <v>19</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PATI2298.ATSIANGBE</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PATR5027.AMEH</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SURESH.DHAWAN</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>50</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>WIDLINE.JEUNE</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Average UPH</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr"/>
+      <c r="C17" s="1" t="inlineStr"/>
+      <c r="D17" s="1" t="n">
+        <v>146.7</v>
       </c>
     </row>
   </sheetData>
@@ -944,22 +1055,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>UserID</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>PutwallPickingQuantity</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SinglePackingQuantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>UPH</t>
         </is>
@@ -968,222 +1079,222 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>MARIA.GALDAMEZ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>293</v>
+        <v>47</v>
       </c>
       <c r="C2" t="n">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>204.42</v>
+        <v>88.12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SURESH.DHAWAN</t>
+          <t>GEOR950N.PEREZ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>263</v>
+        <v>159</v>
       </c>
       <c r="C3" t="n">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="D3" t="n">
-        <v>192.44</v>
+        <v>51.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>AGNE8120.CARUTH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>405</v>
+        <v>99</v>
       </c>
       <c r="C4" t="n">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="D4" t="n">
-        <v>169.93</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>YATI0689.YATIN</t>
+          <t>WASIM.NAJI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>304</v>
+        <v>86</v>
       </c>
       <c r="C5" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D5" t="n">
-        <v>168.89</v>
+        <v>46.91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ANASTASIIA.MAKHTOUT</t>
+          <t>CHARLES.VELASCO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>206</v>
+        <v>50</v>
       </c>
       <c r="C6" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D6" t="n">
-        <v>167.03</v>
+        <v>42.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>PRITTY.MAZUMDER</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>383</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="D7" t="n">
-        <v>139.27</v>
+        <v>38.95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LOWRHY-OTIENO.JAOKO</t>
+          <t>PAULINA.LUBIN</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C8" t="n">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="D8" t="n">
-        <v>131.8</v>
+        <v>33.57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>XUAN754N.LU</t>
+          <t>NICO0711.JANSON</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>343</v>
+        <v>54</v>
       </c>
       <c r="C9" t="n">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="D9" t="n">
-        <v>127.83</v>
+        <v>29.72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>TOMA9753.LANDUKULUPE</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="D10" t="n">
-        <v>124.35</v>
+        <v>28.78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PATI2298.ATSIANGBE</t>
+          <t>MARIO.OUIMET</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C11" t="n">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="D11" t="n">
-        <v>58.5</v>
+        <v>28.28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AHME0710.JUBRAN</t>
+          <t>MILA1082.PEREZ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>27.43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>ALMER.VILLAMIN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KHINEHAYMAR.THAUNG</t>
+          <t>PRIY2874.ARUNSIVACHA</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>MELA6559.ROCHETTE</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1192,29 +1303,29 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr"/>
-      <c r="C17" s="2" t="inlineStr"/>
-      <c r="D17" s="2" t="n">
-        <v>148.45</v>
+      <c r="B17" s="1" t="inlineStr"/>
+      <c r="C17" s="1" t="inlineStr"/>
+      <c r="D17" s="1" t="n">
+        <v>39.4</v>
       </c>
     </row>
   </sheetData>
@@ -1228,7 +1339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,22 +1348,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>UserID</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>ReplenishmentPickQuantity</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>multiPackingQuantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>UPH</t>
         </is>
@@ -1261,365 +1372,285 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GIGNESH.PATEL</t>
+          <t>MELA6559.ROCHETTE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>63</v>
+        <v>228</v>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="D2" t="n">
-        <v>102.16</v>
+        <v>92.43000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ANJALI.BAKSHI</t>
+          <t>CHARLES.VELASCO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="C3" t="n">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="D3" t="n">
-        <v>94.43000000000001</v>
+        <v>91.45999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ANASTASIIA.MAKHTOUT</t>
+          <t>MONCEF.BOUKHOUDMI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C4" t="n">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D4" t="n">
-        <v>82.7</v>
+        <v>83.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>TOMA9753.LANDUKULUPE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="C5" t="n">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="D5" t="n">
-        <v>82</v>
+        <v>81.06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>MILA1082.PEREZ</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="C6" t="n">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c r="D6" t="n">
-        <v>78.75</v>
+        <v>77.83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>NICO0711.JANSON</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C7" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>77.7</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LOWRHY-OTIENO.JAOKO</t>
+          <t>JOSE202N.OSEMWOTA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>188</v>
+        <v>253</v>
       </c>
       <c r="C8" t="n">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="D8" t="n">
-        <v>74.20999999999999</v>
+        <v>65.43000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ZAHIDGUL.MINHAS</t>
+          <t>MARIO.OUIMET</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="D9" t="n">
-        <v>68.15000000000001</v>
+        <v>27.17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BUDD0680.TENNAKOON</t>
+          <t>AGNE8120.CARUTH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ZAKI0190.PHILLIPHORS</t>
+          <t>PRINCE.FORSON</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="C11" t="n">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>58.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PRINCE.FORSON</t>
+          <t>PRIY2874.ARUNSIVACHA</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>55.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>PRITTY.MAZUMDER</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="C13" t="n">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="D13" t="n">
-        <v>51.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>REJWAN.ISLAM</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>48.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>ALMER.VILLAMIN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>42.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PATI2298.ATSIANGBE</t>
+          <t>MARIA.GALDAMEZ</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C16" t="n">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>40.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IREN797N.CABRERA</t>
+          <t>GEOR950N.PEREZ</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>38.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AHME0710.JUBRAN</t>
+          <t>WASIM.NAJI</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>SURESH.DHAWAN</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>43</v>
-      </c>
-      <c r="C19" t="n">
-        <v>27</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>JEEW9554.SITUMUDALIG</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>28</v>
-      </c>
-      <c r="C20" t="n">
-        <v>18</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>XUAN754N.LU</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>25</v>
-      </c>
-      <c r="C21" t="n">
-        <v>24</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>DIAN4065.ENTRIALGO</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>50</v>
-      </c>
-      <c r="C22" t="n">
-        <v>27</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ADOL798N.SEEMANNVAZQ</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>17</v>
-      </c>
-      <c r="C23" t="n">
-        <v>9</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr"/>
-      <c r="C24" s="2" t="inlineStr"/>
-      <c r="D24" s="2" t="n">
-        <v>66</v>
+      <c r="B19" s="1" t="inlineStr"/>
+      <c r="C19" s="1" t="inlineStr"/>
+      <c r="D19" s="1" t="n">
+        <v>73.90000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1633,7 +1664,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1665,179 +1696,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="C2" t="n">
-        <v>0.160427807486631</v>
+        <v>22.08588957055215</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ANASTASIIA.MAKHTOUT</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C3" t="n">
-        <v>1.283422459893048</v>
+        <v>9.754601226993865</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ANJALI.BAKSHI</t>
+          <t>BUDD0680.TENNAKOON</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2.566844919786096</v>
+        <v>0.920245398773006</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>GEEPESH.X</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>17.48663101604278</v>
+        <v>3.865030674846626</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IREN797N.CABRERA</t>
+          <t>JAYLICIA.BELLINGY</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>6.096256684491979</v>
+        <v>5.889570552147239</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>KAYLEESA.LESLIE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="C7" t="n">
-        <v>3.689839572192513</v>
+        <v>15.8282208588957</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LOWRHY-OTIENO.JAOKO</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1.122994652406417</v>
+        <v>0.3680981595092024</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>LOWRHY-OTIENO.JAOKO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.481283422459893</v>
+        <v>1.47239263803681</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PRINCE.FORSON</t>
+          <t>MAKEDA.OLLIVIERRE</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C10" t="n">
-        <v>6.577540106951871</v>
+        <v>6.441717791411043</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>REJWAN.ISLAM</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>6.737967914438503</v>
+        <v>2.94478527607362</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>0.481283422459893</v>
+        <v>0.3680981595092024</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SURESH.DHAWAN</t>
+          <t>PATI2298.ATSIANGBE</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>2.566844919786096</v>
+        <v>0.3680981595092024</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>PATR5027.AMEH</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1.283422459893048</v>
+        <v>0.1840490797546012</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ZAHIDGUL.MINHAS</t>
+          <t>REJWAN.ISLAM</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>8.502673796791443</v>
+        <v>0.1840490797546012</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SHELLA.VALERY</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.47239263803681</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>VANESSA.CALO</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>40</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7.361963190184048</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>WIDLINE.JEUNE</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1840490797546012</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ZAKI0190.PHILLIPHORS</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>77</v>
+      </c>
+      <c r="C19" t="n">
+        <v>14.17177914110429</v>
       </c>
     </row>
   </sheetData>
@@ -1851,7 +1934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1860,17 +1943,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>UserID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>SinglePickQuantity</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>UPH</t>
         </is>
@@ -1879,118 +1967,237 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADOL798N.SEEMANNVAZQ</t>
+          <t>GAGA4290.KALSI</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6417112299465241</v>
+        <v>43</v>
+      </c>
+      <c r="D2" t="n">
+        <v>79.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ANASTASIIA.MAKHTOUT</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C3" t="n">
-        <v>4.652406417112299</v>
+        <v>52</v>
+      </c>
+      <c r="D3" t="n">
+        <v>76.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BUDD0680.TENNAKOON</t>
+          <t>MARY0067.BOULIANNEBL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="C4" t="n">
-        <v>3.529411764705882</v>
+        <v>125</v>
+      </c>
+      <c r="D4" t="n">
+        <v>71.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DARL3515.GEDIN</t>
+          <t>ANJALI.BAKSHI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C5" t="n">
-        <v>3.850267379679144</v>
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>WIDLINE.JEUNE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="C6" t="n">
-        <v>8.663101604278074</v>
+        <v>124</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>ALMER.VILLAMIN</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>20.05347593582888</v>
+        <v>52</v>
+      </c>
+      <c r="D7" t="n">
+        <v>48.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NANACY.ADDAI</t>
+          <t>RARG046N.YEBOAH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>8.502673796791443</v>
+        <v>38</v>
+      </c>
+      <c r="D8" t="n">
+        <v>45.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>IRENEMAE.CABRERA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>7.058823529411764</v>
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ZAIN3010.BENABDALLAH</t>
+          <t>JOSEPH.MARDINI</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
-        <v>12.83422459893048</v>
+        <v>27</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>KARL.DARANTINAO</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>17</v>
+      </c>
+      <c r="C11" t="n">
+        <v>22</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>KAYLEESA.LESLIE</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>32</v>
+      </c>
+      <c r="C12" t="n">
+        <v>13</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LOWRHY-OTIENO.JAOKO</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>15</v>
+      </c>
+      <c r="C13" t="n">
+        <v>14</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>REJWAN.ISLAM</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SINA.BAGHERI</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Average UPH</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr"/>
+      <c r="C16" s="1" t="inlineStr"/>
+      <c r="D16" s="1" t="n">
+        <v>61.4</v>
       </c>
     </row>
   </sheetData>
@@ -2004,7 +2211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2013,139 +2220,325 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Hour</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Single Pick</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Replenishment Pick</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Multi Pick</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>UserID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ReplenishmentPickQuantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>UPH</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SHELLA.VALERY</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="C2" t="n">
-        <v>315</v>
+        <v>79</v>
       </c>
       <c r="D2" t="n">
-        <v>245</v>
+        <v>71.39</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KARL.DARANTINAO</t>
+        </is>
       </c>
       <c r="B3" t="n">
+        <v>88</v>
+      </c>
+      <c r="C3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D3" t="n">
+        <v>69.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GIGNESH.PATEL</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>63</v>
+      </c>
+      <c r="C4" t="n">
+        <v>56</v>
+      </c>
+      <c r="D4" t="n">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>RARG046N.YEBOAH</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>53</v>
+      </c>
+      <c r="C5" t="n">
+        <v>49</v>
+      </c>
+      <c r="D5" t="n">
+        <v>64.90000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KADE3054.ZONGO</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>118</v>
+      </c>
+      <c r="C6" t="n">
+        <v>114</v>
+      </c>
+      <c r="D6" t="n">
+        <v>62.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>LOWRHY-OTIENO.JAOKO</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>103</v>
+      </c>
+      <c r="C7" t="n">
+        <v>106</v>
+      </c>
+      <c r="D7" t="n">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ANJALI.BAKSHI</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>63</v>
+      </c>
+      <c r="C8" t="n">
+        <v>70</v>
+      </c>
+      <c r="D8" t="n">
         <v>54</v>
-      </c>
-      <c r="C3" t="n">
-        <v>575</v>
-      </c>
-      <c r="D3" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>81</v>
-      </c>
-      <c r="C4" t="n">
-        <v>435</v>
-      </c>
-      <c r="D4" t="n">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>66</v>
-      </c>
-      <c r="C5" t="n">
-        <v>287</v>
-      </c>
-      <c r="D5" t="n">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>87</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>126</v>
-      </c>
-      <c r="C7" t="n">
-        <v>27</v>
-      </c>
-      <c r="D7" t="n">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>GAGA4290.KALSI</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>435</v>
+        <v>72</v>
       </c>
       <c r="C9" t="n">
-        <v>1689</v>
+        <v>81</v>
       </c>
       <c r="D9" t="n">
-        <v>3127</v>
+        <v>53.33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>KAYLEESA.LESLIE</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>30</v>
+      </c>
+      <c r="C10" t="n">
+        <v>36</v>
+      </c>
+      <c r="D10" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BUDD0680.TENNAKOON</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>75</v>
+      </c>
+      <c r="C11" t="n">
+        <v>106</v>
+      </c>
+      <c r="D11" t="n">
+        <v>42.45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AHME0710.JUBRAN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SURESH.DHAWAN</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>43</v>
+      </c>
+      <c r="C13" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>REJWAN.ISLAM</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>30</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MARY0067.BOULIANNEBL</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NICO0711.JANSON</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>26</v>
+      </c>
+      <c r="C16" t="n">
+        <v>20</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NESR2403.ATTALAH</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MELA6559.ROCHETTE</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>THIE6554.DIALLO</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Average UPH</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr"/>
+      <c r="C20" s="1" t="inlineStr"/>
+      <c r="D20" s="1" t="n">
+        <v>59.35</v>
       </c>
     </row>
   </sheetData>
@@ -2159,7 +2552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2168,75 +2561,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>ZONE</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>QUANTITY PICKED</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>UserID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>QuickMoveQuantity</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>UPH</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3F</t>
+          <t>AHME0710.JUBRAN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>101</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18.58895705521472</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1Y</t>
+          <t>ESSE0616.UDEH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54</v>
+        <v>361</v>
+      </c>
+      <c r="C3" t="n">
+        <v>66.44171779141104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1H</t>
+          <t>JEEW9554.SITUMUDALIG</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>237</v>
+        <v>72</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13.25153374233129</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1G</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89</v>
+        <v>141</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25.95092024539877</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3D</t>
+          <t>MAKEDA.OLLIVIERRE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1840490797546012</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>250</v>
+      </c>
+      <c r="C7" t="n">
+        <v>46.01226993865031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SHELLA.VALERY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>94</v>
+      </c>
+      <c r="C8" t="n">
+        <v>17.30061349693251</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SURESH.DHAWAN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>26</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.785276073619632</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>THIE6554.DIALLO</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>35</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.441717791411043</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ZAKI0190.PHILLIPHORS</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.656441717791411</v>
       </c>
     </row>
   </sheetData>
@@ -2250,13 +2718,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -2266,366 +2740,518 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>multiPackingQuantity</t>
+          <t>TotalIdleTime</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Time</t>
+          <t>FirstActionTime</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>UPH</t>
+          <t>LastActionTime</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>VANESSA.CALO</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>305</v>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>04:02:00 AM</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>05:17:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>SINA.BAGHERI</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>290</v>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>04:50:00 AM</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>04:53:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>JAYLICIA.BELLINGY</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>265</v>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>01:42:00 AM</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>05:16:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>AHME0710.JUBRAN</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>261</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>02:55:00 AM</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>04:49:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>REJWAN.ISLAM</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>256</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>12:34:00 AM</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>04:42:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>LOANA.MBONGO</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>236</v>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>01:49:00 AM</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>03:56:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>KARL.DARANTINAO</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>213</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00 AM</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>05:17:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>KAYLEESA.LESLIE</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>190</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>01:06:00 AM</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>05:08:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>RARG046N.YEBOAH</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>189</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>12:08:00 AM</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>05:06:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>GIGNESH.PATEL</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>185</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>12:09:00 AM</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>05:22:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>GAGA4290.KALSI</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>184</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>12:21:00 AM</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>05:24:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>BUDD0680.TENNAKOON</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>183</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>12:33:00 AM</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>04:56:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>ANJALI.BAKSHI</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>178</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>12:21:00 AM</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>05:25:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>ESSE0616.UDEH</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>174</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>12:08:00 AM</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>05:26:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>SHELLA.VALERY</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>168</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>12:21:00 AM</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>05:00:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>JEEW9554.SITUMUDALIG</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>164</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>12:29:00 AM</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>03:30:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>MARY0067.BOULIANNEBL</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>158</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>12:00:00 AM</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>05:26:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>WIDLINE.JEUNE</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>155</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>12:16:00 AM</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>05:14:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>LOWRHY-OTIENO.JAOKO</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>144</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>12:12:00 AM</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>05:25:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>SURESH.DHAWAN</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>136</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>12:16:00 AM</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>03:20:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>NESR2403.ATTALAH</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>133</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>12:15:00 AM</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>05:12:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>KADE3054.ZONGO</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>99</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>12:12:00 AM</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>05:12:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>THIE6554.DIALLO</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>78</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>12:08:00 AM</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>05:18:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>JOSEPH.MARDINI</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>250</v>
-      </c>
-      <c r="C2" t="n">
-        <v>105</v>
-      </c>
-      <c r="D2" t="n">
-        <v>142.86</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CHARLES.VELASCO</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>540</v>
-      </c>
-      <c r="C3" t="n">
-        <v>278</v>
-      </c>
-      <c r="D3" t="n">
-        <v>116.55</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MARY0067.BOULIANNEBL</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>502</v>
-      </c>
-      <c r="C4" t="n">
-        <v>297</v>
-      </c>
-      <c r="D4" t="n">
-        <v>101.41</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MILA1082.PEREZ</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>321</v>
-      </c>
-      <c r="C5" t="n">
-        <v>195</v>
-      </c>
-      <c r="D5" t="n">
-        <v>98.77</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>KARL.DARANTINAO</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>215</v>
-      </c>
-      <c r="C6" t="n">
-        <v>137</v>
-      </c>
-      <c r="D6" t="n">
-        <v>94.16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>XYZE1559.MACASIL</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>423</v>
-      </c>
-      <c r="C7" t="n">
-        <v>284</v>
-      </c>
-      <c r="D7" t="n">
-        <v>89.37</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>CHEI145N.BOCOUM</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>224</v>
-      </c>
-      <c r="C8" t="n">
-        <v>164</v>
-      </c>
-      <c r="D8" t="n">
-        <v>81.95</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>PATI2298.ATSIANGBE</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>120</v>
-      </c>
-      <c r="C9" t="n">
-        <v>102</v>
-      </c>
-      <c r="D9" t="n">
-        <v>70.59</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>JOSE202N.OSEMWOTA</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>252</v>
-      </c>
-      <c r="C10" t="n">
-        <v>226</v>
-      </c>
-      <c r="D10" t="n">
-        <v>66.90000000000001</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ZAKI0190.PHILLIPHORS</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>40</v>
-      </c>
-      <c r="C11" t="n">
-        <v>36</v>
-      </c>
-      <c r="D11" t="n">
-        <v>66.67</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>JEEW9554.SITUMUDALIG</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>293</v>
-      </c>
-      <c r="C12" t="n">
-        <v>269</v>
-      </c>
-      <c r="D12" t="n">
-        <v>65.34999999999999</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>XUAN754N.LU</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>63</v>
-      </c>
-      <c r="C13" t="n">
-        <v>62</v>
-      </c>
-      <c r="D13" t="n">
-        <v>60.97</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>MAKEDA.OLLIVIERRE</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>46</v>
-      </c>
-      <c r="C14" t="n">
-        <v>50</v>
-      </c>
-      <c r="D14" t="n">
-        <v>55.2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ALMER.VILLAMIN</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>156</v>
-      </c>
-      <c r="C15" t="n">
-        <v>193</v>
-      </c>
-      <c r="D15" t="n">
-        <v>48.5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>MARIA.GALDAMEZ</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>47</v>
-      </c>
-      <c r="C16" t="n">
-        <v>10</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>BOHD0676.KUSHLIAK</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" t="n">
-        <v>11</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>PATR5027.AMEH</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>RFBASE</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>8</v>
-      </c>
-      <c r="C19" t="n">
-        <v>10</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>SUPRIYA.THAKUR</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>EZRA.RAMIREZ</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>DAVI129N.TEJA</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>10</v>
-      </c>
-      <c r="C22" t="n">
-        <v>7</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Average UPH</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr"/>
-      <c r="C23" s="2" t="inlineStr"/>
-      <c r="D23" s="2" t="n">
-        <v>82.8</v>
+      <c r="B25" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>12:29:00 AM</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>01:25:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>IRENEMAE.CABRERA</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>12:17:00 AM</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>12:40:00 AM</t>
+        </is>
       </c>
     </row>
   </sheetData>
